--- a/other/css计算器.xlsx
+++ b/other/css计算器.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class003" sheetId="1" r:id="rId1"/>
+    <sheet name="class006" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>c00303</t>
   </si>
@@ -77,6 +78,114 @@
   </si>
   <si>
     <t>列42</t>
+  </si>
+  <si>
+    <t>定位图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h44.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fh90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fh1240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -86,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +223,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -168,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +306,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -205,13 +326,45 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -224,8 +377,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -377,6 +528,74 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -442,40 +661,6 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -509,7 +694,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -522,35 +707,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -592,47 +754,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -647,32 +768,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <tableColumns count="12">
-    <tableColumn id="1" name="列1" dataDxfId="13"/>
+    <tableColumn id="1" name="列1" dataDxfId="11"/>
     <tableColumn id="2" name="x" dataDxfId="10"/>
-    <tableColumn id="3" name="列2" dataDxfId="8">
+    <tableColumn id="3" name="列2" dataDxfId="9">
       <calculatedColumnFormula>B2/$B$2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="y" dataDxfId="9"/>
+    <tableColumn id="4" name="y" dataDxfId="8"/>
     <tableColumn id="10" name="列6" dataDxfId="7">
       <calculatedColumnFormula>表3[[#This Row],[y]]-127</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="列7" dataDxfId="0">
+    <tableColumn id="12" name="列7" dataDxfId="6">
       <calculatedColumnFormula>表3[[#This Row],[列6]]/16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="列3" dataDxfId="6">
+    <tableColumn id="5" name="列3" dataDxfId="5">
       <calculatedColumnFormula>D2/$D$2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="w" dataDxfId="5"/>
-    <tableColumn id="7" name="列4" dataDxfId="4">
+    <tableColumn id="6" name="w" dataDxfId="4"/>
+    <tableColumn id="7" name="列4" dataDxfId="3">
       <calculatedColumnFormula>H2/$H$2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="列42" dataDxfId="1">
+    <tableColumn id="11" name="列42" dataDxfId="2">
       <calculatedColumnFormula>表3[[#This Row],[w]]/16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="h" dataDxfId="3"/>
-    <tableColumn id="9" name="列5" dataDxfId="2">
+    <tableColumn id="8" name="h" dataDxfId="1"/>
+    <tableColumn id="9" name="列5" dataDxfId="0">
       <calculatedColumnFormula>K2/$K$2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -945,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1256,4 +1377,202 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
+        <v>167</v>
+      </c>
+      <c r="C2" s="7">
+        <v>175</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7">
+        <v>167</v>
+      </c>
+      <c r="C3" s="7">
+        <v>171</v>
+      </c>
+      <c r="D3" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>167</v>
+      </c>
+      <c r="C4" s="7">
+        <v>167</v>
+      </c>
+      <c r="D4" s="7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>167</v>
+      </c>
+      <c r="C5" s="7">
+        <v>165</v>
+      </c>
+      <c r="D5" s="7">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>167</v>
+      </c>
+      <c r="C6" s="7">
+        <v>202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7">
+        <v>167</v>
+      </c>
+      <c r="C7" s="7">
+        <v>167</v>
+      </c>
+      <c r="D7" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>167</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>217</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>217</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/other/css计算器.xlsx
+++ b/other/css计算器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class003" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +232,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -286,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +316,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1383,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1499,51 +1511,82 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>217</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>217</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
